--- a/conta/main/tests/data/cuentas.xlsx
+++ b/conta/main/tests/data/cuentas.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud\Nextcloud\Programacion\GitHub\contabilidad\conta\main\tests\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{354EA5DA-4E6A-492B-9D0F-FB6C4E5434E9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945E48D9-8841-405F-8F71-55A60588E381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Cuentas" sheetId="1" r:id="rId1"/>
+    <sheet name="cuentas" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Cuentas">Cuentas!$A$1:$B$8</definedName>
+    <definedName name="Cuentas">cuentas!$F$4:$G$11</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t>Cuenta</t>
   </si>
@@ -118,13 +118,25 @@
   </si>
   <si>
     <t>Electricidad casa</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>balance</t>
+  </si>
+  <si>
+    <t>gastos</t>
+  </si>
+  <si>
+    <t>gastos, casa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,13 +144,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -201,12 +227,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -545,127 +572,175 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="F4:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="11.5546875" customWidth="1"/>
+    <col min="7" max="7" width="22.77734375" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="4" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G4" s="5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="H4" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="G5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="G6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F7" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="G7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="H7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F8" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+      <c r="G8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="H8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F9" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
+      <c r="G9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="H9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F10" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
+      <c r="G10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="H10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F11" t="s">
         <v>9</v>
       </c>
-      <c r="B8" t="s">
+      <c r="G11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="H11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="H12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="H13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="H14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="H15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="H16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F17" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="G17" s="4" t="s">
         <v>27</v>
+      </c>
+      <c r="H17" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/conta/main/tests/data/cuentas.xlsx
+++ b/conta/main/tests/data/cuentas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud\Nextcloud\Programacion\GitHub\contabilidad\conta\main\tests\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945E48D9-8841-405F-8F71-55A60588E381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84396609-B63E-41CC-8734-F1E1B91B3E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="cuentas" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Cuentas">cuentas!$F$4:$G$11</definedName>
+    <definedName name="Cuentas">cuentas!$A$1:$B$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -572,170 +572,170 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="F4:H17"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="11.5546875" customWidth="1"/>
-    <col min="7" max="7" width="22.77734375" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+    <col min="2" max="2" width="22.77734375" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F4" s="5" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F5" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="G5" t="s">
+      <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="H5" t="s">
+      <c r="C2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F6" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="G6" t="s">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="H6" t="s">
+      <c r="C3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F7" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="G7" t="s">
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="H7" t="s">
+      <c r="C4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F8" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="G8" t="s">
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="H8" t="s">
+      <c r="C5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F9" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="G9" t="s">
+      <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="H9" t="s">
+      <c r="C6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F10" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="G10" t="s">
+      <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="H10" t="s">
+      <c r="C7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F11" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="G11" t="s">
+      <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="H11" t="s">
+      <c r="C8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F12" s="1" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H12" t="s">
+      <c r="C9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F13" s="1" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H13" t="s">
+      <c r="C10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F14" s="1" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H14" t="s">
+      <c r="C11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F15" s="1" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H15" t="s">
+      <c r="C12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F16" s="1" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H16" t="s">
+      <c r="C13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F17" s="3" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="B14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H17" t="s">
+      <c r="C14" t="s">
         <v>31</v>
       </c>
     </row>
